--- a/RestaurantApp/src/test/resources/datacontroller/RestaurantAppController.xlsx
+++ b/RestaurantApp/src/test/resources/datacontroller/RestaurantAppController.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="Toogle" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="MultiRestaurant" sheetId="5" r:id="rId2"/>
+    <sheet name="UserInput" sheetId="4" r:id="rId3"/>
+    <sheet name="headless" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H18"/>
+  <oleSize ref="A1:K18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -30,44 +31,113 @@
     <t>Description</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Want to run Test in headless Browser(Answer yes or no)</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Restraunt Name</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
     <t>Postcode</t>
   </si>
   <si>
-    <t>Search by Pin</t>
+    <t>SearchPin</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>test restaurant selenium</t>
+  </si>
+  <si>
+    <t>RestaurantName</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>VerifyIfRestaurantIsListed</t>
+  </si>
+  <si>
+    <t>verifyOrderPlacementFlow</t>
+  </si>
+  <si>
+    <t>main street 2415</t>
+  </si>
+  <si>
+    <t>8888AA</t>
+  </si>
+  <si>
+    <t>Enschede</t>
+  </si>
+  <si>
+    <t>testuser@test.test</t>
+  </si>
+  <si>
+    <t>samiksha</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>verify the restaurant is listed in the search page, pincode and restaurant name read from data controller</t>
+  </si>
+  <si>
+    <t>Place order for test restaurant, pin, restaurant name, address, postcode, city, name, e-mail read from data controller</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>test restaurant appium</t>
+  </si>
+  <si>
+    <t>VerifyIfRestaurantsAreListed</t>
+  </si>
+  <si>
+    <t>verify the restaurants are listed in the search page, pincode and restaurant name read from data controller using data provider</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>mevlana</t>
+  </si>
+  <si>
+    <t>RestaurantName(full or partial, small case)</t>
+  </si>
+  <si>
+    <t>Serial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,12 +152,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -95,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,18 +209,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,49 +499,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="31" style="4" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25"/>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8888</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8888</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8888</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8888</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8888</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>8888</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,91 +764,28 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>" ​test restaurant"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/RestaurantApp/src/test/resources/datacontroller/RestaurantAppController.xlsx
+++ b/RestaurantApp/src/test/resources/datacontroller/RestaurantAppController.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="6075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="6075" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="MultiRestaurant" sheetId="5" r:id="rId2"/>
-    <sheet name="UserInput" sheetId="4" r:id="rId3"/>
-    <sheet name="headless" sheetId="3" r:id="rId4"/>
+    <sheet name="headless" sheetId="3" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId2"/>
+    <sheet name="MultiRestaurant" sheetId="5" r:id="rId3"/>
+    <sheet name="UserInput" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K18"/>
+  <oleSize ref="A1:I18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -97,18 +97,12 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>test restaurant appium</t>
-  </si>
-  <si>
     <t>VerifyIfRestaurantsAreListed</t>
   </si>
   <si>
     <t>verify the restaurants are listed in the search page, pincode and restaurant name read from data controller using data provider</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>scenario</t>
   </si>
   <si>
@@ -122,6 +116,15 @@
   </si>
   <si>
     <t>Serial</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>sushi</t>
+  </si>
+  <si>
+    <t>vincent</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,10 +591,10 @@
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
@@ -569,11 +613,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -583,13 +629,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -611,10 +657,10 @@
         <v>8888</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -622,10 +668,10 @@
         <v>8888</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -633,7 +679,7 @@
         <v>8888</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -747,45 +793,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/RestaurantApp/src/test/resources/datacontroller/RestaurantAppController.xlsx
+++ b/RestaurantApp/src/test/resources/datacontroller/RestaurantAppController.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="6075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="headless" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="UserInput" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I18"/>
+  <oleSize ref="A1:H18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -118,13 +118,13 @@
     <t>Serial</t>
   </si>
   <si>
+    <t>sushi</t>
+  </si>
+  <si>
+    <t>vincent</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>sushi</t>
-  </si>
-  <si>
-    <t>vincent</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>8888</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>8888</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
